--- a/Introduction_to_Bigdata/naver_news/naver_셀트리온_result_0101_1031_2.xlsx
+++ b/Introduction_to_Bigdata/naver_news/naver_셀트리온_result_0101_1031_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="1140">
   <si>
     <t>title</t>
   </si>
@@ -2872,496 +2872,565 @@
     <t>http://www.munhwa.com/news/view.html?no=2021070601030930322001</t>
   </si>
   <si>
-    <t>22면</t>
-  </si>
-  <si>
-    <t>2021.10.25.</t>
-  </si>
-  <si>
-    <t>A24면</t>
-  </si>
-  <si>
-    <t>2021.10.28.</t>
-  </si>
-  <si>
-    <t>14면</t>
-  </si>
-  <si>
-    <t>A16면</t>
-  </si>
-  <si>
-    <t>2021.10.26.</t>
-  </si>
-  <si>
-    <t>A20면</t>
-  </si>
-  <si>
-    <t>A23면</t>
-  </si>
-  <si>
-    <t>2021.10.19.</t>
-  </si>
-  <si>
-    <t>19면</t>
-  </si>
-  <si>
-    <t>2021.10.12.</t>
-  </si>
-  <si>
-    <t>A26면</t>
-  </si>
-  <si>
-    <t>2021.10.14.</t>
-  </si>
-  <si>
-    <t>12면</t>
-  </si>
-  <si>
-    <t>15면</t>
-  </si>
-  <si>
-    <t>A19면</t>
-  </si>
-  <si>
-    <t>2021.10.11.</t>
-  </si>
-  <si>
-    <t>2021.10.01.</t>
-  </si>
-  <si>
-    <t>B4면</t>
-  </si>
-  <si>
-    <t>2021.09.24.</t>
-  </si>
-  <si>
-    <t>2021.09.23.</t>
-  </si>
-  <si>
-    <t>13면</t>
-  </si>
-  <si>
-    <t>10면</t>
-  </si>
-  <si>
-    <t>2021.08.23.</t>
-  </si>
-  <si>
-    <t>11면</t>
-  </si>
-  <si>
-    <t>2021.08.20.</t>
-  </si>
-  <si>
-    <t>2021.08.12.</t>
-  </si>
-  <si>
-    <t>2021.08.11.</t>
-  </si>
-  <si>
-    <t>2면</t>
-  </si>
-  <si>
-    <t>4면</t>
-  </si>
-  <si>
-    <t>2021.08.04.</t>
-  </si>
-  <si>
-    <t>16면</t>
-  </si>
-  <si>
-    <t>9면</t>
-  </si>
-  <si>
-    <t>2021.08.03.</t>
-  </si>
-  <si>
-    <t>2021.08.02.</t>
-  </si>
-  <si>
-    <t>2021.07.26.</t>
-  </si>
-  <si>
-    <t>2021.07.12.</t>
-  </si>
-  <si>
-    <t>2021.07.08.</t>
-  </si>
-  <si>
-    <t>20면</t>
-  </si>
-  <si>
-    <t>2021.07.14.</t>
-  </si>
-  <si>
-    <t>A1면</t>
-  </si>
-  <si>
-    <t>2021.06.24.</t>
-  </si>
-  <si>
-    <t>A21면</t>
-  </si>
-  <si>
-    <t>2021.07.13.</t>
-  </si>
-  <si>
-    <t>2021.06.21.</t>
-  </si>
-  <si>
-    <t>B2면</t>
-  </si>
-  <si>
-    <t>7면</t>
-  </si>
-  <si>
-    <t>2021.06.18.</t>
-  </si>
-  <si>
-    <t>2021.06.14.</t>
-  </si>
-  <si>
-    <t>B6면</t>
-  </si>
-  <si>
-    <t>2021.06.22.</t>
-  </si>
-  <si>
-    <t>2021.06.11.</t>
-  </si>
-  <si>
-    <t>A15면</t>
-  </si>
-  <si>
-    <t>2021.06.10.</t>
-  </si>
-  <si>
-    <t>A5면</t>
-  </si>
-  <si>
-    <t>2021.06.30.</t>
-  </si>
-  <si>
-    <t>25면</t>
-  </si>
-  <si>
-    <t>2021.05.30.</t>
-  </si>
-  <si>
-    <t>A4면</t>
-  </si>
-  <si>
-    <t>A11면</t>
-  </si>
-  <si>
-    <t>2021.05.14.</t>
-  </si>
-  <si>
-    <t>18면</t>
-  </si>
-  <si>
-    <t>2021.05.13.</t>
-  </si>
-  <si>
-    <t>1면</t>
-  </si>
-  <si>
-    <t>A18면</t>
-  </si>
-  <si>
-    <t>2021.06.07.</t>
-  </si>
-  <si>
-    <t>A25면</t>
-  </si>
-  <si>
-    <t>2021.05.12.</t>
-  </si>
-  <si>
-    <t>A2면</t>
-  </si>
-  <si>
-    <t>2021.06.25.</t>
-  </si>
-  <si>
-    <t>2021.05.11.</t>
-  </si>
-  <si>
-    <t>2021.05.05.</t>
-  </si>
-  <si>
-    <t>2021.05.04.</t>
-  </si>
-  <si>
-    <t>2021.05.03.</t>
-  </si>
-  <si>
-    <t>A22면</t>
-  </si>
-  <si>
-    <t>2021.04.26.</t>
-  </si>
-  <si>
-    <t>21면</t>
-  </si>
-  <si>
-    <t>2021.04.23.</t>
-  </si>
-  <si>
-    <t>2021.04.20.</t>
-  </si>
-  <si>
-    <t>2021.04.19.</t>
-  </si>
-  <si>
-    <t>2021.04.18.</t>
-  </si>
-  <si>
-    <t>2021.04.15.</t>
-  </si>
-  <si>
-    <t>2021.04.13.</t>
-  </si>
-  <si>
-    <t>2021.03.31.</t>
-  </si>
-  <si>
-    <t>2021.03.29.</t>
-  </si>
-  <si>
-    <t>2021.03.28.</t>
-  </si>
-  <si>
-    <t>A28면</t>
-  </si>
-  <si>
-    <t>2021.03.26.</t>
-  </si>
-  <si>
-    <t>2021.03.25.</t>
-  </si>
-  <si>
-    <t>B3면</t>
-  </si>
-  <si>
-    <t>2021.03.23.</t>
-  </si>
-  <si>
-    <t>2021.03.17.</t>
-  </si>
-  <si>
-    <t>2021.03.08.</t>
-  </si>
-  <si>
-    <t>2021.03.06.</t>
-  </si>
-  <si>
-    <t>2021.04.28.</t>
-  </si>
-  <si>
-    <t>2021.03.03.</t>
-  </si>
-  <si>
-    <t>2021.03.02.</t>
-  </si>
-  <si>
-    <t>2021.03.01.</t>
-  </si>
-  <si>
-    <t>2021.02.28.</t>
-  </si>
-  <si>
-    <t>2021.02.25.</t>
-  </si>
-  <si>
-    <t>2021.02.24.</t>
-  </si>
-  <si>
-    <t>2021.02.23.</t>
-  </si>
-  <si>
-    <t>2021.02.22.</t>
-  </si>
-  <si>
-    <t>A13면</t>
-  </si>
-  <si>
-    <t>A14면</t>
-  </si>
-  <si>
-    <t>2021.02.21.</t>
-  </si>
-  <si>
-    <t>2021.02.18.</t>
-  </si>
-  <si>
-    <t>2021.02.17.</t>
-  </si>
-  <si>
-    <t>A37면</t>
-  </si>
-  <si>
-    <t>2021.03.18.</t>
-  </si>
-  <si>
-    <t>2021.02.15.</t>
-  </si>
-  <si>
-    <t>2021.02.08.</t>
-  </si>
-  <si>
-    <t>2021.02.07.</t>
-  </si>
-  <si>
-    <t>2021.02.05.</t>
-  </si>
-  <si>
-    <t>17면</t>
-  </si>
-  <si>
-    <t>2021.02.03.</t>
-  </si>
-  <si>
-    <t>2021.02.02.</t>
-  </si>
-  <si>
-    <t>23면</t>
-  </si>
-  <si>
-    <t>2021.02.01.</t>
-  </si>
-  <si>
-    <t>5면</t>
-  </si>
-  <si>
-    <t>26면</t>
-  </si>
-  <si>
-    <t>2021.01.31.</t>
-  </si>
-  <si>
-    <t>28면</t>
-  </si>
-  <si>
-    <t>2021.01.25.</t>
-  </si>
-  <si>
-    <t>2021.03.27.</t>
-  </si>
-  <si>
-    <t>2021.01.22.</t>
-  </si>
-  <si>
-    <t>B7면</t>
-  </si>
-  <si>
-    <t>2021.01.15.</t>
-  </si>
-  <si>
-    <t>2021.01.14.</t>
-  </si>
-  <si>
-    <t>6면</t>
-  </si>
-  <si>
-    <t>2021.01.13.</t>
-  </si>
-  <si>
-    <t>2021.01.12.</t>
-  </si>
-  <si>
-    <t>2021.01.10.</t>
-  </si>
-  <si>
-    <t>2021.01.08.</t>
-  </si>
-  <si>
-    <t>2021.01.06.</t>
-  </si>
-  <si>
-    <t>2021.01.05.</t>
-  </si>
-  <si>
-    <t>2021.01.17.</t>
-  </si>
-  <si>
-    <t>2021.08.27.</t>
-  </si>
-  <si>
-    <t>8면</t>
-  </si>
-  <si>
-    <t>2021.01.28.</t>
-  </si>
-  <si>
-    <t>A12면</t>
-  </si>
-  <si>
-    <t>2021.01.19.</t>
-  </si>
-  <si>
-    <t>2021.02.09.</t>
-  </si>
-  <si>
-    <t>2021.01.18.</t>
-  </si>
-  <si>
-    <t>2021.08.09.</t>
-  </si>
-  <si>
-    <t>2021.07.20.</t>
-  </si>
-  <si>
-    <t>2021.08.22.</t>
-  </si>
-  <si>
-    <t>2021.08.10.</t>
-  </si>
-  <si>
-    <t>2021.08.01.</t>
-  </si>
-  <si>
-    <t>2021.06.08.</t>
-  </si>
-  <si>
-    <t>2021.05.19.</t>
-  </si>
-  <si>
-    <t>2021.05.02.</t>
-  </si>
-  <si>
-    <t>2021.05.10.</t>
-  </si>
-  <si>
-    <t>2021.04.29.</t>
-  </si>
-  <si>
-    <t>2021.10.18.</t>
-  </si>
-  <si>
-    <t>B5면</t>
-  </si>
-  <si>
-    <t>2021.10.05.</t>
-  </si>
-  <si>
-    <t>B1면</t>
-  </si>
-  <si>
-    <t>2021.04.02.</t>
-  </si>
-  <si>
-    <t>2021.10.29.</t>
-  </si>
-  <si>
-    <t>2021.02.11.</t>
-  </si>
-  <si>
-    <t>E2면</t>
-  </si>
-  <si>
-    <t>2021.10.06.</t>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021.10.28</t>
+  </si>
+  <si>
+    <t>2021-10-28</t>
+  </si>
+  <si>
+    <t>2021-10-26</t>
+  </si>
+  <si>
+    <t>2021.10.25</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>2021-10-20</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021.10.19</t>
+  </si>
+  <si>
+    <t>2021-10-12</t>
+  </si>
+  <si>
+    <t>2021-10-14</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>2021-10-05</t>
+  </si>
+  <si>
+    <t>2021.10.05</t>
+  </si>
+  <si>
+    <t>2021-10-13</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
+  </si>
+  <si>
+    <t>2021.10.11</t>
+  </si>
+  <si>
+    <t>2021.09.30</t>
+  </si>
+  <si>
+    <t>2021-09-24</t>
+  </si>
+  <si>
+    <t>2021.09.23</t>
+  </si>
+  <si>
+    <t>2021-09-23</t>
+  </si>
+  <si>
+    <t>2021-09-22</t>
+  </si>
+  <si>
+    <t>2021.09.16</t>
+  </si>
+  <si>
+    <t>2021.09.15</t>
+  </si>
+  <si>
+    <t>2021-09-16</t>
+  </si>
+  <si>
+    <t>2021-08-29</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2021-08-20</t>
+  </si>
+  <si>
+    <t>2021-08-13</t>
+  </si>
+  <si>
+    <t>2021-08-11</t>
+  </si>
+  <si>
+    <t>2021-08-12</t>
+  </si>
+  <si>
+    <t>2021-08-10</t>
+  </si>
+  <si>
+    <t>2021-08-17</t>
+  </si>
+  <si>
+    <t>2021.08.10</t>
+  </si>
+  <si>
+    <t>2021-08-04</t>
+  </si>
+  <si>
+    <t>2021-08-03</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-07-27</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-07-20</t>
+  </si>
+  <si>
+    <t>2021.07.20</t>
+  </si>
+  <si>
+    <t>2021-07-13</t>
+  </si>
+  <si>
+    <t>2021-07-08</t>
+  </si>
+  <si>
+    <t>2021-07-14</t>
+  </si>
+  <si>
+    <t>2021-07-06</t>
+  </si>
+  <si>
+    <t>2021-07-23</t>
+  </si>
+  <si>
+    <t>2021.06.30</t>
+  </si>
+  <si>
+    <t>2021-06-24</t>
+  </si>
+  <si>
+    <t>2021.06.21</t>
+  </si>
+  <si>
+    <t>2021-06-17</t>
+  </si>
+  <si>
+    <t>2021-06-18</t>
+  </si>
+  <si>
+    <t>2021-06-15</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-11</t>
+  </si>
+  <si>
+    <t>2021-06-10</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021.06.08</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021.05.14</t>
+  </si>
+  <si>
+    <t>2021-05-13</t>
+  </si>
+  <si>
+    <t>2021.05.12</t>
+  </si>
+  <si>
+    <t>2021-06-25</t>
+  </si>
+  <si>
+    <t>2021-05-11</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021.07.13</t>
+  </si>
+  <si>
+    <t>2021-06-02</t>
+  </si>
+  <si>
+    <t>2021-05-06</t>
+  </si>
+  <si>
+    <t>2021-05-04</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021.05.04</t>
+  </si>
+  <si>
+    <t>2021-04-29</t>
+  </si>
+  <si>
+    <t>2021.04.27</t>
+  </si>
+  <si>
+    <t>2021-04-27</t>
+  </si>
+  <si>
+    <t>2021-04-23</t>
+  </si>
+  <si>
+    <t>2021-04-20</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-18</t>
+  </si>
+  <si>
+    <t>2021.04.18</t>
+  </si>
+  <si>
+    <t>2021.04.16</t>
+  </si>
+  <si>
+    <t>2021.04.13</t>
+  </si>
+  <si>
+    <t>2021.04.19</t>
+  </si>
+  <si>
+    <t>2021-04-13</t>
+  </si>
+  <si>
+    <t>2021.03.31</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-03-28</t>
+  </si>
+  <si>
+    <t>2021-03-26</t>
+  </si>
+  <si>
+    <t>2021.03.27</t>
+  </si>
+  <si>
+    <t>2021.03.25</t>
+  </si>
+  <si>
+    <t>2021.03.26</t>
+  </si>
+  <si>
+    <t>2021.03.23</t>
+  </si>
+  <si>
+    <t>2021.03.21</t>
+  </si>
+  <si>
+    <t>2021.03.29</t>
+  </si>
+  <si>
+    <t>2021-03-17</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-05</t>
+  </si>
+  <si>
+    <t>2021.04.28</t>
+  </si>
+  <si>
+    <t>2021-03-04</t>
+  </si>
+  <si>
+    <t>2021-04-02</t>
+  </si>
+  <si>
+    <t>2021-03-03</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2021-03-02</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2021.02.28</t>
+  </si>
+  <si>
+    <t>2021-02-25</t>
+  </si>
+  <si>
+    <t>2021.02.25</t>
+  </si>
+  <si>
+    <t>2021-02-24</t>
+  </si>
+  <si>
+    <t>2021-02-23</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-02-21</t>
+  </si>
+  <si>
+    <t>2021.02.22</t>
+  </si>
+  <si>
+    <t>2021-02-18</t>
+  </si>
+  <si>
+    <t>2021-02-17</t>
+  </si>
+  <si>
+    <t>2021-03-18</t>
+  </si>
+  <si>
+    <t>2021.02.15</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-07</t>
+  </si>
+  <si>
+    <t>2021.02.05</t>
+  </si>
+  <si>
+    <t>2021-02-05</t>
+  </si>
+  <si>
+    <t>2021-02-04</t>
+  </si>
+  <si>
+    <t>2021.02.04</t>
+  </si>
+  <si>
+    <t>2021-02-03</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>2021.02.03</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021.02.01</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>2021-01-29</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021.01.25</t>
+  </si>
+  <si>
+    <t>2021-03-27</t>
+  </si>
+  <si>
+    <t>2021-01-22</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-15</t>
+  </si>
+  <si>
+    <t>2021-01-14</t>
+  </si>
+  <si>
+    <t>2021.01.14</t>
+  </si>
+  <si>
+    <t>2021-01-13</t>
+  </si>
+  <si>
+    <t>2021.01.27</t>
+  </si>
+  <si>
+    <t>2021.01.12</t>
+  </si>
+  <si>
+    <t>2021-01-10</t>
+  </si>
+  <si>
+    <t>2021-01-08</t>
+  </si>
+  <si>
+    <t>2021-01-06</t>
+  </si>
+  <si>
+    <t>2021.01.05</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-02-06</t>
+  </si>
+  <si>
+    <t>2021-08-27</t>
+  </si>
+  <si>
+    <t>2021-01-28</t>
+  </si>
+  <si>
+    <t>2021-01-27</t>
+  </si>
+  <si>
+    <t>2021-01-24</t>
+  </si>
+  <si>
+    <t>2021-01-19</t>
+  </si>
+  <si>
+    <t>2021-02-09</t>
+  </si>
+  <si>
+    <t>2021.08.09</t>
+  </si>
+  <si>
+    <t>2021-08-22</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021.07.08</t>
+  </si>
+  <si>
+    <t>2021.08.01</t>
+  </si>
+  <si>
+    <t>2021-07-11</t>
+  </si>
+  <si>
+    <t>2021-06-09</t>
+  </si>
+  <si>
+    <t>2021-06-08</t>
+  </si>
+  <si>
+    <t>2021.06.11</t>
+  </si>
+  <si>
+    <t>2021.05.19</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2021.05.02</t>
+  </si>
+  <si>
+    <t>2021.05.10</t>
+  </si>
+  <si>
+    <t>2021.04.29</t>
+  </si>
+  <si>
+    <t>2021-04-28</t>
+  </si>
+  <si>
+    <t>2021.06.09</t>
+  </si>
+  <si>
+    <t>2021.04.21</t>
+  </si>
+  <si>
+    <t>2021-07-25</t>
+  </si>
+  <si>
+    <t>2021.05.11</t>
+  </si>
+  <si>
+    <t>2021.03.04</t>
+  </si>
+  <si>
+    <t>2021.04.25</t>
+  </si>
+  <si>
+    <t>2021-03-10</t>
+  </si>
+  <si>
+    <t>2021-04-01</t>
+  </si>
+  <si>
+    <t>2021.06.04</t>
+  </si>
+  <si>
+    <t>2021-02-16</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
+  </si>
+  <si>
+    <t>2021.01.07</t>
+  </si>
+  <si>
+    <t>2021.03.05</t>
+  </si>
+  <si>
+    <t>2021.01.15</t>
+  </si>
+  <si>
+    <t>2021.01.13</t>
+  </si>
+  <si>
+    <t>2021.01.31</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021.08.11</t>
   </si>
   <si>
     <t>naver</t>
@@ -3772,7 +3841,7 @@
         <v>952</v>
       </c>
       <c r="E2" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3789,7 +3858,7 @@
         <v>953</v>
       </c>
       <c r="E3" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3806,7 +3875,7 @@
         <v>954</v>
       </c>
       <c r="E4" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3823,7 +3892,7 @@
         <v>955</v>
       </c>
       <c r="E5" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3840,7 +3909,7 @@
         <v>956</v>
       </c>
       <c r="E6" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3854,10 +3923,10 @@
         <v>641</v>
       </c>
       <c r="D7" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="E7" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3871,10 +3940,10 @@
         <v>642</v>
       </c>
       <c r="D8" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="E8" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3888,10 +3957,10 @@
         <v>643</v>
       </c>
       <c r="D9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E9" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3905,10 +3974,10 @@
         <v>644</v>
       </c>
       <c r="D10" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E10" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3922,10 +3991,10 @@
         <v>645</v>
       </c>
       <c r="D11" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="E11" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3942,7 +4011,7 @@
         <v>960</v>
       </c>
       <c r="E12" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3959,7 +4028,7 @@
         <v>961</v>
       </c>
       <c r="E13" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3976,7 +4045,7 @@
         <v>962</v>
       </c>
       <c r="E14" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3990,10 +4059,10 @@
         <v>649</v>
       </c>
       <c r="D15" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="E15" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4007,10 +4076,10 @@
         <v>650</v>
       </c>
       <c r="D16" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E16" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4024,10 +4093,10 @@
         <v>651</v>
       </c>
       <c r="D17" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="E17" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4041,10 +4110,10 @@
         <v>652</v>
       </c>
       <c r="D18" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E18" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4058,10 +4127,10 @@
         <v>653</v>
       </c>
       <c r="D19" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="E19" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4075,10 +4144,10 @@
         <v>654</v>
       </c>
       <c r="D20" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E20" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4092,10 +4161,10 @@
         <v>655</v>
       </c>
       <c r="D21" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="E21" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4109,10 +4178,10 @@
         <v>656</v>
       </c>
       <c r="D22" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="E22" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4126,10 +4195,10 @@
         <v>657</v>
       </c>
       <c r="D23" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="E23" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4143,10 +4212,10 @@
         <v>658</v>
       </c>
       <c r="D24" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E24" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4160,10 +4229,10 @@
         <v>659</v>
       </c>
       <c r="D25" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="E25" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4177,10 +4246,10 @@
         <v>660</v>
       </c>
       <c r="D26" t="s">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="E26" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4194,10 +4263,10 @@
         <v>661</v>
       </c>
       <c r="D27" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E27" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4211,10 +4280,10 @@
         <v>662</v>
       </c>
       <c r="D28" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="E28" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4228,10 +4297,10 @@
         <v>663</v>
       </c>
       <c r="D29" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="E29" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4245,10 +4314,10 @@
         <v>664</v>
       </c>
       <c r="D30" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E30" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4265,7 +4334,7 @@
         <v>971</v>
       </c>
       <c r="E31" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4282,7 +4351,7 @@
         <v>972</v>
       </c>
       <c r="E32" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4296,10 +4365,10 @@
         <v>667</v>
       </c>
       <c r="D33" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="E33" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4316,7 +4385,7 @@
         <v>973</v>
       </c>
       <c r="E34" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4330,10 +4399,10 @@
         <v>669</v>
       </c>
       <c r="D35" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="E35" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4347,10 +4416,10 @@
         <v>670</v>
       </c>
       <c r="D36" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E36" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4367,7 +4436,7 @@
         <v>975</v>
       </c>
       <c r="E37" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4381,10 +4450,10 @@
         <v>672</v>
       </c>
       <c r="D38" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
       <c r="E38" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4398,10 +4467,10 @@
         <v>673</v>
       </c>
       <c r="D39" t="s">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="E39" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4415,10 +4484,10 @@
         <v>674</v>
       </c>
       <c r="D40" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="E40" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4432,10 +4501,10 @@
         <v>675</v>
       </c>
       <c r="D41" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="E41" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4449,10 +4518,10 @@
         <v>676</v>
       </c>
       <c r="D42" t="s">
-        <v>976</v>
+        <v>980</v>
       </c>
       <c r="E42" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4466,10 +4535,10 @@
         <v>677</v>
       </c>
       <c r="D43" t="s">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="E43" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4483,10 +4552,10 @@
         <v>678</v>
       </c>
       <c r="D44" t="s">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E44" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4500,10 +4569,10 @@
         <v>679</v>
       </c>
       <c r="D45" t="s">
-        <v>966</v>
+        <v>983</v>
       </c>
       <c r="E45" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4517,10 +4586,10 @@
         <v>680</v>
       </c>
       <c r="D46" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="E46" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4534,10 +4603,10 @@
         <v>681</v>
       </c>
       <c r="D47" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="E47" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4551,10 +4620,10 @@
         <v>682</v>
       </c>
       <c r="D48" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E48" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4568,10 +4637,10 @@
         <v>683</v>
       </c>
       <c r="D49" t="s">
-        <v>981</v>
+        <v>984</v>
       </c>
       <c r="E49" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4585,10 +4654,10 @@
         <v>684</v>
       </c>
       <c r="D50" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="E50" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4602,10 +4671,10 @@
         <v>685</v>
       </c>
       <c r="D51" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="E51" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4619,10 +4688,10 @@
         <v>686</v>
       </c>
       <c r="D52" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="E52" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4636,10 +4705,10 @@
         <v>687</v>
       </c>
       <c r="D53" t="s">
-        <v>984</v>
+        <v>987</v>
       </c>
       <c r="E53" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4653,10 +4722,10 @@
         <v>688</v>
       </c>
       <c r="D54" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="E54" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4670,10 +4739,10 @@
         <v>689</v>
       </c>
       <c r="D55" t="s">
-        <v>985</v>
+        <v>989</v>
       </c>
       <c r="E55" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4687,10 +4756,10 @@
         <v>690</v>
       </c>
       <c r="D56" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="E56" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4704,10 +4773,10 @@
         <v>691</v>
       </c>
       <c r="D57" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="E57" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4721,10 +4790,10 @@
         <v>692</v>
       </c>
       <c r="D58" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="E58" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4738,10 +4807,10 @@
         <v>693</v>
       </c>
       <c r="D59" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="E59" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4755,10 +4824,10 @@
         <v>694</v>
       </c>
       <c r="D60" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="E60" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4772,10 +4841,10 @@
         <v>695</v>
       </c>
       <c r="D61" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="E61" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4789,10 +4858,10 @@
         <v>696</v>
       </c>
       <c r="D62" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E62" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4806,10 +4875,10 @@
         <v>697</v>
       </c>
       <c r="D63" t="s">
-        <v>957</v>
+        <v>994</v>
       </c>
       <c r="E63" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4823,10 +4892,10 @@
         <v>698</v>
       </c>
       <c r="D64" t="s">
-        <v>983</v>
+        <v>995</v>
       </c>
       <c r="E64" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4840,10 +4909,10 @@
         <v>699</v>
       </c>
       <c r="D65" t="s">
-        <v>966</v>
+        <v>996</v>
       </c>
       <c r="E65" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4857,10 +4926,10 @@
         <v>700</v>
       </c>
       <c r="D66" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="E66" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4874,10 +4943,10 @@
         <v>701</v>
       </c>
       <c r="D67" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
       <c r="E67" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4891,10 +4960,10 @@
         <v>702</v>
       </c>
       <c r="D68" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="E68" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4908,10 +4977,10 @@
         <v>703</v>
       </c>
       <c r="D69" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="E69" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4925,10 +4994,10 @@
         <v>704</v>
       </c>
       <c r="D70" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="E70" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4942,10 +5011,10 @@
         <v>705</v>
       </c>
       <c r="D71" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="E71" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4962,7 +5031,7 @@
         <v>994</v>
       </c>
       <c r="E72" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4976,10 +5045,10 @@
         <v>707</v>
       </c>
       <c r="D73" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="E73" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4993,10 +5062,10 @@
         <v>708</v>
       </c>
       <c r="D74" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E74" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5010,10 +5079,10 @@
         <v>709</v>
       </c>
       <c r="D75" t="s">
-        <v>959</v>
+        <v>1002</v>
       </c>
       <c r="E75" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5027,10 +5096,10 @@
         <v>710</v>
       </c>
       <c r="D76" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="E76" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5044,10 +5113,10 @@
         <v>711</v>
       </c>
       <c r="D77" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="E77" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5061,10 +5130,10 @@
         <v>712</v>
       </c>
       <c r="D78" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="E78" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5078,10 +5147,10 @@
         <v>713</v>
       </c>
       <c r="D79" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E79" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5095,10 +5164,10 @@
         <v>714</v>
       </c>
       <c r="D80" t="s">
-        <v>952</v>
+        <v>1005</v>
       </c>
       <c r="E80" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5112,10 +5181,10 @@
         <v>715</v>
       </c>
       <c r="D81" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="E81" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5129,10 +5198,10 @@
         <v>716</v>
       </c>
       <c r="D82" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="E82" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5146,10 +5215,10 @@
         <v>717</v>
       </c>
       <c r="D83" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="E83" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5163,10 +5232,10 @@
         <v>718</v>
       </c>
       <c r="D84" t="s">
-        <v>984</v>
+        <v>1009</v>
       </c>
       <c r="E84" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5180,10 +5249,10 @@
         <v>719</v>
       </c>
       <c r="D85" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="E85" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5197,10 +5266,10 @@
         <v>720</v>
       </c>
       <c r="D86" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E86" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5214,10 +5283,10 @@
         <v>721</v>
       </c>
       <c r="D87" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="E87" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5231,10 +5300,10 @@
         <v>722</v>
       </c>
       <c r="D88" t="s">
-        <v>1007</v>
+        <v>1011</v>
       </c>
       <c r="E88" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5248,10 +5317,10 @@
         <v>723</v>
       </c>
       <c r="D89" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="E89" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5265,10 +5334,10 @@
         <v>724</v>
       </c>
       <c r="D90" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E90" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5282,10 +5351,10 @@
         <v>725</v>
       </c>
       <c r="D91" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="E91" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5299,10 +5368,10 @@
         <v>726</v>
       </c>
       <c r="D92" t="s">
-        <v>1010</v>
+        <v>1013</v>
       </c>
       <c r="E92" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5316,10 +5385,10 @@
         <v>727</v>
       </c>
       <c r="D93" t="s">
-        <v>1011</v>
+        <v>1014</v>
       </c>
       <c r="E93" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5333,10 +5402,10 @@
         <v>728</v>
       </c>
       <c r="D94" t="s">
-        <v>961</v>
+        <v>1015</v>
       </c>
       <c r="E94" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5350,10 +5419,10 @@
         <v>729</v>
       </c>
       <c r="D95" t="s">
-        <v>1012</v>
+        <v>1016</v>
       </c>
       <c r="E95" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5367,10 +5436,10 @@
         <v>730</v>
       </c>
       <c r="D96" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="E96" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5384,10 +5453,10 @@
         <v>731</v>
       </c>
       <c r="D97" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="E97" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5401,10 +5470,10 @@
         <v>732</v>
       </c>
       <c r="D98" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="E98" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5418,10 +5487,10 @@
         <v>733</v>
       </c>
       <c r="D99" t="s">
-        <v>960</v>
+        <v>1019</v>
       </c>
       <c r="E99" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5435,10 +5504,10 @@
         <v>707</v>
       </c>
       <c r="D100" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="E100" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5452,10 +5521,10 @@
         <v>708</v>
       </c>
       <c r="D101" t="s">
-        <v>959</v>
+        <v>1001</v>
       </c>
       <c r="E101" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5469,10 +5538,10 @@
         <v>709</v>
       </c>
       <c r="D102" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="E102" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5486,10 +5555,10 @@
         <v>710</v>
       </c>
       <c r="D103" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="E103" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5503,10 +5572,10 @@
         <v>711</v>
       </c>
       <c r="D104" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="E104" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5520,10 +5589,10 @@
         <v>712</v>
       </c>
       <c r="D105" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E105" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5537,10 +5606,10 @@
         <v>713</v>
       </c>
       <c r="D106" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="E106" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5554,10 +5623,10 @@
         <v>714</v>
       </c>
       <c r="D107" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="E107" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5571,10 +5640,10 @@
         <v>734</v>
       </c>
       <c r="D108" t="s">
-        <v>952</v>
+        <v>1005</v>
       </c>
       <c r="E108" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5588,10 +5657,10 @@
         <v>714</v>
       </c>
       <c r="D109" t="s">
-        <v>1001</v>
+        <v>1005</v>
       </c>
       <c r="E109" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5605,10 +5674,10 @@
         <v>715</v>
       </c>
       <c r="D110" t="s">
-        <v>952</v>
+        <v>1006</v>
       </c>
       <c r="E110" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5622,10 +5691,10 @@
         <v>716</v>
       </c>
       <c r="D111" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="E111" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5639,10 +5708,10 @@
         <v>717</v>
       </c>
       <c r="D112" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="E112" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5656,10 +5725,10 @@
         <v>718</v>
       </c>
       <c r="D113" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="E113" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -5673,10 +5742,10 @@
         <v>719</v>
       </c>
       <c r="D114" t="s">
-        <v>984</v>
+        <v>1010</v>
       </c>
       <c r="E114" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -5690,10 +5759,10 @@
         <v>720</v>
       </c>
       <c r="D115" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="E115" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -5707,10 +5776,10 @@
         <v>721</v>
       </c>
       <c r="D116" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="E116" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -5724,10 +5793,10 @@
         <v>722</v>
       </c>
       <c r="D117" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="E117" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -5741,10 +5810,10 @@
         <v>722</v>
       </c>
       <c r="D118" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E118" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -5758,10 +5827,10 @@
         <v>735</v>
       </c>
       <c r="D119" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="E119" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -5775,10 +5844,10 @@
         <v>723</v>
       </c>
       <c r="D120" t="s">
-        <v>956</v>
+        <v>1007</v>
       </c>
       <c r="E120" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -5792,10 +5861,10 @@
         <v>724</v>
       </c>
       <c r="D121" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="E121" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -5809,10 +5878,10 @@
         <v>725</v>
       </c>
       <c r="D122" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="E122" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -5826,10 +5895,10 @@
         <v>726</v>
       </c>
       <c r="D123" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="E123" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -5843,10 +5912,10 @@
         <v>727</v>
       </c>
       <c r="D124" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
       <c r="E124" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -5860,10 +5929,10 @@
         <v>728</v>
       </c>
       <c r="D125" t="s">
-        <v>966</v>
+        <v>1015</v>
       </c>
       <c r="E125" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -5877,10 +5946,10 @@
         <v>729</v>
       </c>
       <c r="D126" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E126" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -5894,10 +5963,10 @@
         <v>726</v>
       </c>
       <c r="D127" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="E127" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -5911,10 +5980,10 @@
         <v>727</v>
       </c>
       <c r="D128" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E128" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -5928,10 +5997,10 @@
         <v>728</v>
       </c>
       <c r="D129" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="E129" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -5945,10 +6014,10 @@
         <v>729</v>
       </c>
       <c r="D130" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E130" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -5962,10 +6031,10 @@
         <v>730</v>
       </c>
       <c r="D131" t="s">
-        <v>984</v>
+        <v>1017</v>
       </c>
       <c r="E131" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -5979,10 +6048,10 @@
         <v>731</v>
       </c>
       <c r="D132" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="E132" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -5996,10 +6065,10 @@
         <v>732</v>
       </c>
       <c r="D133" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="E133" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -6013,10 +6082,10 @@
         <v>736</v>
       </c>
       <c r="D134" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="E134" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -6030,10 +6099,10 @@
         <v>737</v>
       </c>
       <c r="D135" t="s">
-        <v>975</v>
+        <v>1020</v>
       </c>
       <c r="E135" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -6047,10 +6116,10 @@
         <v>738</v>
       </c>
       <c r="D136" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E136" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -6064,10 +6133,10 @@
         <v>739</v>
       </c>
       <c r="D137" t="s">
-        <v>985</v>
+        <v>1021</v>
       </c>
       <c r="E137" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -6081,10 +6150,10 @@
         <v>740</v>
       </c>
       <c r="D138" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E138" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -6098,10 +6167,10 @@
         <v>741</v>
       </c>
       <c r="D139" t="s">
-        <v>981</v>
+        <v>1022</v>
       </c>
       <c r="E139" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -6115,10 +6184,10 @@
         <v>742</v>
       </c>
       <c r="D140" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E140" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -6132,10 +6201,10 @@
         <v>743</v>
       </c>
       <c r="D141" t="s">
-        <v>977</v>
+        <v>1024</v>
       </c>
       <c r="E141" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -6149,10 +6218,10 @@
         <v>744</v>
       </c>
       <c r="D142" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="E142" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -6166,10 +6235,10 @@
         <v>745</v>
       </c>
       <c r="D143" t="s">
-        <v>956</v>
+        <v>1025</v>
       </c>
       <c r="E143" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -6186,7 +6255,7 @@
         <v>1026</v>
       </c>
       <c r="E144" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -6203,7 +6272,7 @@
         <v>1027</v>
       </c>
       <c r="E145" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -6217,10 +6286,10 @@
         <v>748</v>
       </c>
       <c r="D146" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="E146" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -6234,10 +6303,10 @@
         <v>746</v>
       </c>
       <c r="D147" t="s">
-        <v>995</v>
+        <v>1026</v>
       </c>
       <c r="E147" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -6251,10 +6320,10 @@
         <v>747</v>
       </c>
       <c r="D148" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E148" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -6268,10 +6337,10 @@
         <v>748</v>
       </c>
       <c r="D149" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="E149" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -6285,10 +6354,10 @@
         <v>749</v>
       </c>
       <c r="D150" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E150" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -6302,10 +6371,10 @@
         <v>750</v>
       </c>
       <c r="D151" t="s">
-        <v>967</v>
+        <v>1030</v>
       </c>
       <c r="E151" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -6322,7 +6391,7 @@
         <v>1030</v>
       </c>
       <c r="E152" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -6336,10 +6405,10 @@
         <v>752</v>
       </c>
       <c r="D153" t="s">
-        <v>962</v>
+        <v>1031</v>
       </c>
       <c r="E153" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -6353,10 +6422,10 @@
         <v>753</v>
       </c>
       <c r="D154" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E154" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -6370,10 +6439,10 @@
         <v>754</v>
       </c>
       <c r="D155" t="s">
-        <v>1017</v>
+        <v>1033</v>
       </c>
       <c r="E155" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -6387,10 +6456,10 @@
         <v>755</v>
       </c>
       <c r="D156" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E156" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -6404,10 +6473,10 @@
         <v>756</v>
       </c>
       <c r="D157" t="s">
-        <v>984</v>
+        <v>1035</v>
       </c>
       <c r="E157" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -6421,10 +6490,10 @@
         <v>752</v>
       </c>
       <c r="D158" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="E158" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -6438,10 +6507,10 @@
         <v>753</v>
       </c>
       <c r="D159" t="s">
-        <v>968</v>
+        <v>1032</v>
       </c>
       <c r="E159" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -6458,7 +6527,7 @@
         <v>1033</v>
       </c>
       <c r="E160" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -6472,10 +6541,10 @@
         <v>755</v>
       </c>
       <c r="D161" t="s">
-        <v>956</v>
+        <v>1034</v>
       </c>
       <c r="E161" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -6489,10 +6558,10 @@
         <v>757</v>
       </c>
       <c r="D162" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
       <c r="E162" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -6506,10 +6575,10 @@
         <v>758</v>
       </c>
       <c r="D163" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E163" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -6523,10 +6592,10 @@
         <v>759</v>
       </c>
       <c r="D164" t="s">
-        <v>956</v>
+        <v>1037</v>
       </c>
       <c r="E164" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -6540,10 +6609,10 @@
         <v>760</v>
       </c>
       <c r="D165" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="E165" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -6557,10 +6626,10 @@
         <v>761</v>
       </c>
       <c r="D166" t="s">
-        <v>977</v>
+        <v>1036</v>
       </c>
       <c r="E166" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -6574,10 +6643,10 @@
         <v>759</v>
       </c>
       <c r="D167" t="s">
-        <v>1035</v>
+        <v>1037</v>
       </c>
       <c r="E167" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -6591,10 +6660,10 @@
         <v>760</v>
       </c>
       <c r="D168" t="s">
-        <v>959</v>
+        <v>1038</v>
       </c>
       <c r="E168" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -6608,10 +6677,10 @@
         <v>762</v>
       </c>
       <c r="D169" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
       <c r="E169" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -6625,10 +6694,10 @@
         <v>763</v>
       </c>
       <c r="D170" t="s">
-        <v>967</v>
+        <v>1039</v>
       </c>
       <c r="E170" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -6642,10 +6711,10 @@
         <v>764</v>
       </c>
       <c r="D171" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="E171" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -6659,10 +6728,10 @@
         <v>765</v>
       </c>
       <c r="D172" t="s">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="E172" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -6676,10 +6745,10 @@
         <v>766</v>
       </c>
       <c r="D173" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="E173" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -6693,10 +6762,10 @@
         <v>767</v>
       </c>
       <c r="D174" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
       <c r="E174" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -6710,10 +6779,10 @@
         <v>768</v>
       </c>
       <c r="D175" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="E175" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -6727,10 +6796,10 @@
         <v>769</v>
       </c>
       <c r="D176" t="s">
-        <v>1012</v>
+        <v>1043</v>
       </c>
       <c r="E176" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -6744,10 +6813,10 @@
         <v>766</v>
       </c>
       <c r="D177" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E177" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -6761,10 +6830,10 @@
         <v>767</v>
       </c>
       <c r="D178" t="s">
-        <v>1012</v>
+        <v>1042</v>
       </c>
       <c r="E178" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -6778,10 +6847,10 @@
         <v>768</v>
       </c>
       <c r="D179" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="E179" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -6795,10 +6864,10 @@
         <v>770</v>
       </c>
       <c r="D180" t="s">
-        <v>995</v>
+        <v>1044</v>
       </c>
       <c r="E180" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -6812,10 +6881,10 @@
         <v>771</v>
       </c>
       <c r="D181" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="E181" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -6829,10 +6898,10 @@
         <v>772</v>
       </c>
       <c r="D182" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="E182" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -6846,10 +6915,10 @@
         <v>773</v>
       </c>
       <c r="D183" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="E183" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -6863,10 +6932,10 @@
         <v>774</v>
       </c>
       <c r="D184" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="E184" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -6880,10 +6949,10 @@
         <v>775</v>
       </c>
       <c r="D185" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="E185" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -6897,10 +6966,10 @@
         <v>776</v>
       </c>
       <c r="D186" t="s">
-        <v>977</v>
+        <v>1047</v>
       </c>
       <c r="E186" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -6914,10 +6983,10 @@
         <v>777</v>
       </c>
       <c r="D187" t="s">
-        <v>1044</v>
+        <v>1048</v>
       </c>
       <c r="E187" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -6931,10 +7000,10 @@
         <v>778</v>
       </c>
       <c r="D188" t="s">
-        <v>956</v>
+        <v>1048</v>
       </c>
       <c r="E188" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -6948,10 +7017,10 @@
         <v>779</v>
       </c>
       <c r="D189" t="s">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="E189" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -6965,10 +7034,10 @@
         <v>780</v>
       </c>
       <c r="D190" t="s">
-        <v>977</v>
+        <v>1050</v>
       </c>
       <c r="E190" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -6982,10 +7051,10 @@
         <v>781</v>
       </c>
       <c r="D191" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="E191" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -6999,10 +7068,10 @@
         <v>782</v>
       </c>
       <c r="D192" t="s">
-        <v>956</v>
+        <v>1052</v>
       </c>
       <c r="E192" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -7016,10 +7085,10 @@
         <v>783</v>
       </c>
       <c r="D193" t="s">
-        <v>1046</v>
+        <v>1053</v>
       </c>
       <c r="E193" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -7033,10 +7102,10 @@
         <v>784</v>
       </c>
       <c r="D194" t="s">
-        <v>959</v>
+        <v>1053</v>
       </c>
       <c r="E194" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -7050,10 +7119,10 @@
         <v>785</v>
       </c>
       <c r="D195" t="s">
-        <v>1047</v>
+        <v>1054</v>
       </c>
       <c r="E195" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -7067,10 +7136,10 @@
         <v>784</v>
       </c>
       <c r="D196" t="s">
-        <v>991</v>
+        <v>1053</v>
       </c>
       <c r="E196" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -7084,10 +7153,10 @@
         <v>785</v>
       </c>
       <c r="D197" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="E197" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -7101,10 +7170,10 @@
         <v>786</v>
       </c>
       <c r="D198" t="s">
-        <v>1009</v>
+        <v>1055</v>
       </c>
       <c r="E198" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -7118,10 +7187,10 @@
         <v>787</v>
       </c>
       <c r="D199" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="E199" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -7135,10 +7204,10 @@
         <v>788</v>
       </c>
       <c r="D200" t="s">
-        <v>974</v>
+        <v>1057</v>
       </c>
       <c r="E200" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -7152,10 +7221,10 @@
         <v>789</v>
       </c>
       <c r="D201" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="E201" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -7169,10 +7238,10 @@
         <v>790</v>
       </c>
       <c r="D202" t="s">
-        <v>957</v>
+        <v>1058</v>
       </c>
       <c r="E202" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -7186,10 +7255,10 @@
         <v>791</v>
       </c>
       <c r="D203" t="s">
-        <v>1050</v>
+        <v>1059</v>
       </c>
       <c r="E203" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -7203,10 +7272,10 @@
         <v>792</v>
       </c>
       <c r="D204" t="s">
-        <v>966</v>
+        <v>1058</v>
       </c>
       <c r="E204" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -7220,10 +7289,10 @@
         <v>793</v>
       </c>
       <c r="D205" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
       <c r="E205" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -7237,10 +7306,10 @@
         <v>791</v>
       </c>
       <c r="D206" t="s">
-        <v>964</v>
+        <v>1059</v>
       </c>
       <c r="E206" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -7254,10 +7323,10 @@
         <v>792</v>
       </c>
       <c r="D207" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="E207" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -7271,10 +7340,10 @@
         <v>793</v>
       </c>
       <c r="D208" t="s">
-        <v>1014</v>
+        <v>1060</v>
       </c>
       <c r="E208" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -7288,10 +7357,10 @@
         <v>794</v>
       </c>
       <c r="D209" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="E209" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -7305,10 +7374,10 @@
         <v>795</v>
       </c>
       <c r="D210" t="s">
-        <v>956</v>
+        <v>1061</v>
       </c>
       <c r="E210" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -7322,10 +7391,10 @@
         <v>796</v>
       </c>
       <c r="D211" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="E211" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -7339,10 +7408,10 @@
         <v>797</v>
       </c>
       <c r="D212" t="s">
-        <v>991</v>
+        <v>1062</v>
       </c>
       <c r="E212" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -7356,10 +7425,10 @@
         <v>798</v>
       </c>
       <c r="D213" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
       <c r="E213" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -7373,10 +7442,10 @@
         <v>799</v>
       </c>
       <c r="D214" t="s">
-        <v>1014</v>
+        <v>1062</v>
       </c>
       <c r="E214" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -7390,10 +7459,10 @@
         <v>800</v>
       </c>
       <c r="D215" t="s">
-        <v>1054</v>
+        <v>1063</v>
       </c>
       <c r="E215" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -7407,10 +7476,10 @@
         <v>801</v>
       </c>
       <c r="D216" t="s">
-        <v>960</v>
+        <v>1064</v>
       </c>
       <c r="E216" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -7424,10 +7493,10 @@
         <v>799</v>
       </c>
       <c r="D217" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="E217" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -7441,10 +7510,10 @@
         <v>800</v>
       </c>
       <c r="D218" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="E218" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -7458,10 +7527,10 @@
         <v>802</v>
       </c>
       <c r="D219" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="E219" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -7475,10 +7544,10 @@
         <v>803</v>
       </c>
       <c r="D220" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="E220" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -7492,10 +7561,10 @@
         <v>804</v>
       </c>
       <c r="D221" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="E221" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -7509,10 +7578,10 @@
         <v>805</v>
       </c>
       <c r="D222" t="s">
-        <v>982</v>
+        <v>1055</v>
       </c>
       <c r="E222" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -7526,10 +7595,10 @@
         <v>806</v>
       </c>
       <c r="D223" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="E223" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -7543,10 +7612,10 @@
         <v>807</v>
       </c>
       <c r="D224" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
       <c r="E224" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -7560,10 +7629,10 @@
         <v>808</v>
       </c>
       <c r="D225" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="E225" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -7577,10 +7646,10 @@
         <v>807</v>
       </c>
       <c r="D226" t="s">
-        <v>991</v>
+        <v>1066</v>
       </c>
       <c r="E226" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -7594,10 +7663,10 @@
         <v>808</v>
       </c>
       <c r="D227" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="E227" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -7611,10 +7680,10 @@
         <v>809</v>
       </c>
       <c r="D228" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="E228" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -7628,10 +7697,10 @@
         <v>810</v>
       </c>
       <c r="D229" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="E229" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -7645,10 +7714,10 @@
         <v>811</v>
       </c>
       <c r="D230" t="s">
-        <v>984</v>
+        <v>1058</v>
       </c>
       <c r="E230" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -7662,10 +7731,10 @@
         <v>812</v>
       </c>
       <c r="D231" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="E231" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -7679,10 +7748,10 @@
         <v>813</v>
       </c>
       <c r="D232" t="s">
-        <v>977</v>
+        <v>1070</v>
       </c>
       <c r="E232" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -7696,10 +7765,10 @@
         <v>814</v>
       </c>
       <c r="D233" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="E233" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -7713,10 +7782,10 @@
         <v>815</v>
       </c>
       <c r="D234" t="s">
-        <v>957</v>
+        <v>1071</v>
       </c>
       <c r="E234" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -7730,10 +7799,10 @@
         <v>816</v>
       </c>
       <c r="D235" t="s">
-        <v>1052</v>
+        <v>1065</v>
       </c>
       <c r="E235" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -7747,10 +7816,10 @@
         <v>813</v>
       </c>
       <c r="D236" t="s">
-        <v>977</v>
+        <v>1070</v>
       </c>
       <c r="E236" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -7764,10 +7833,10 @@
         <v>814</v>
       </c>
       <c r="D237" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="E237" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -7781,10 +7850,10 @@
         <v>815</v>
       </c>
       <c r="D238" t="s">
-        <v>1039</v>
+        <v>1071</v>
       </c>
       <c r="E238" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -7801,7 +7870,7 @@
         <v>1065</v>
       </c>
       <c r="E239" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -7815,10 +7884,10 @@
         <v>817</v>
       </c>
       <c r="D240" t="s">
-        <v>967</v>
+        <v>1072</v>
       </c>
       <c r="E240" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -7832,10 +7901,10 @@
         <v>818</v>
       </c>
       <c r="D241" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="E241" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -7849,10 +7918,10 @@
         <v>819</v>
       </c>
       <c r="D242" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
       <c r="E242" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -7866,10 +7935,10 @@
         <v>820</v>
       </c>
       <c r="D243" t="s">
-        <v>1059</v>
+        <v>1075</v>
       </c>
       <c r="E243" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -7883,10 +7952,10 @@
         <v>821</v>
       </c>
       <c r="D244" t="s">
-        <v>1057</v>
+        <v>1069</v>
       </c>
       <c r="E244" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -7900,10 +7969,10 @@
         <v>822</v>
       </c>
       <c r="D245" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
       <c r="E245" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -7917,10 +7986,10 @@
         <v>822</v>
       </c>
       <c r="D246" t="s">
-        <v>1067</v>
+        <v>1076</v>
       </c>
       <c r="E246" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -7934,10 +8003,10 @@
         <v>823</v>
       </c>
       <c r="D247" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E247" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -7951,10 +8020,10 @@
         <v>824</v>
       </c>
       <c r="D248" t="s">
-        <v>1017</v>
+        <v>1077</v>
       </c>
       <c r="E248" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -7968,10 +8037,10 @@
         <v>825</v>
       </c>
       <c r="D249" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="E249" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -7985,10 +8054,10 @@
         <v>826</v>
       </c>
       <c r="D250" t="s">
-        <v>960</v>
+        <v>1077</v>
       </c>
       <c r="E250" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -8002,10 +8071,10 @@
         <v>827</v>
       </c>
       <c r="D251" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="E251" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -8019,10 +8088,10 @@
         <v>828</v>
       </c>
       <c r="D252" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="E252" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -8036,10 +8105,10 @@
         <v>829</v>
       </c>
       <c r="D253" t="s">
-        <v>1063</v>
+        <v>1079</v>
       </c>
       <c r="E253" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -8053,10 +8122,10 @@
         <v>830</v>
       </c>
       <c r="D254" t="s">
-        <v>1067</v>
+        <v>1079</v>
       </c>
       <c r="E254" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -8070,10 +8139,10 @@
         <v>831</v>
       </c>
       <c r="D255" t="s">
-        <v>1069</v>
+        <v>1079</v>
       </c>
       <c r="E255" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -8087,10 +8156,10 @@
         <v>831</v>
       </c>
       <c r="D256" t="s">
-        <v>981</v>
+        <v>1079</v>
       </c>
       <c r="E256" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -8104,10 +8173,10 @@
         <v>832</v>
       </c>
       <c r="D257" t="s">
-        <v>1071</v>
+        <v>1080</v>
       </c>
       <c r="E257" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -8121,10 +8190,10 @@
         <v>833</v>
       </c>
       <c r="D258" t="s">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="E258" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -8138,10 +8207,10 @@
         <v>834</v>
       </c>
       <c r="D259" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="E259" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -8155,10 +8224,10 @@
         <v>835</v>
       </c>
       <c r="D260" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="E260" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -8172,10 +8241,10 @@
         <v>836</v>
       </c>
       <c r="D261" t="s">
-        <v>1071</v>
+        <v>1081</v>
       </c>
       <c r="E261" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -8189,10 +8258,10 @@
         <v>837</v>
       </c>
       <c r="D262" t="s">
-        <v>952</v>
+        <v>1082</v>
       </c>
       <c r="E262" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -8206,10 +8275,10 @@
         <v>838</v>
       </c>
       <c r="D263" t="s">
-        <v>1071</v>
+        <v>1083</v>
       </c>
       <c r="E263" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -8223,10 +8292,10 @@
         <v>839</v>
       </c>
       <c r="D264" t="s">
-        <v>1057</v>
+        <v>1084</v>
       </c>
       <c r="E264" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -8240,10 +8309,10 @@
         <v>840</v>
       </c>
       <c r="D265" t="s">
-        <v>1074</v>
+        <v>1085</v>
       </c>
       <c r="E265" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -8257,10 +8326,10 @@
         <v>839</v>
       </c>
       <c r="D266" t="s">
-        <v>1075</v>
+        <v>1084</v>
       </c>
       <c r="E266" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -8274,10 +8343,10 @@
         <v>840</v>
       </c>
       <c r="D267" t="s">
-        <v>1076</v>
+        <v>1085</v>
       </c>
       <c r="E267" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -8291,10 +8360,10 @@
         <v>841</v>
       </c>
       <c r="D268" t="s">
-        <v>1021</v>
+        <v>1086</v>
       </c>
       <c r="E268" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -8308,10 +8377,10 @@
         <v>842</v>
       </c>
       <c r="D269" t="s">
-        <v>1077</v>
+        <v>1086</v>
       </c>
       <c r="E269" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -8325,10 +8394,10 @@
         <v>843</v>
       </c>
       <c r="D270" t="s">
-        <v>968</v>
+        <v>1086</v>
       </c>
       <c r="E270" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -8342,10 +8411,10 @@
         <v>844</v>
       </c>
       <c r="D271" t="s">
-        <v>1078</v>
+        <v>1064</v>
       </c>
       <c r="E271" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -8359,10 +8428,10 @@
         <v>845</v>
       </c>
       <c r="D272" t="s">
-        <v>991</v>
+        <v>1087</v>
       </c>
       <c r="E272" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -8376,10 +8445,10 @@
         <v>846</v>
       </c>
       <c r="D273" t="s">
-        <v>1078</v>
+        <v>1087</v>
       </c>
       <c r="E273" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -8393,10 +8462,10 @@
         <v>847</v>
       </c>
       <c r="D274" t="s">
-        <v>1079</v>
+        <v>1088</v>
       </c>
       <c r="E274" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="275" spans="1:5">
@@ -8410,10 +8479,10 @@
         <v>848</v>
       </c>
       <c r="D275" t="s">
-        <v>1078</v>
+        <v>1067</v>
       </c>
       <c r="E275" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="276" spans="1:5">
@@ -8427,10 +8496,10 @@
         <v>849</v>
       </c>
       <c r="D276" t="s">
-        <v>1057</v>
+        <v>1088</v>
       </c>
       <c r="E276" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="277" spans="1:5">
@@ -8444,10 +8513,10 @@
         <v>850</v>
       </c>
       <c r="D277" t="s">
-        <v>1080</v>
+        <v>1067</v>
       </c>
       <c r="E277" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="278" spans="1:5">
@@ -8461,10 +8530,10 @@
         <v>851</v>
       </c>
       <c r="D278" t="s">
-        <v>960</v>
+        <v>1088</v>
       </c>
       <c r="E278" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="279" spans="1:5">
@@ -8478,10 +8547,10 @@
         <v>852</v>
       </c>
       <c r="D279" t="s">
-        <v>1062</v>
+        <v>1089</v>
       </c>
       <c r="E279" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="280" spans="1:5">
@@ -8495,10 +8564,10 @@
         <v>853</v>
       </c>
       <c r="D280" t="s">
-        <v>1067</v>
+        <v>1090</v>
       </c>
       <c r="E280" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="281" spans="1:5">
@@ -8512,10 +8581,10 @@
         <v>854</v>
       </c>
       <c r="D281" t="s">
-        <v>1080</v>
+        <v>1091</v>
       </c>
       <c r="E281" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="282" spans="1:5">
@@ -8529,10 +8598,10 @@
         <v>855</v>
       </c>
       <c r="D282" t="s">
-        <v>957</v>
+        <v>1069</v>
       </c>
       <c r="E282" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="283" spans="1:5">
@@ -8546,10 +8615,10 @@
         <v>856</v>
       </c>
       <c r="D283" t="s">
-        <v>1081</v>
+        <v>1092</v>
       </c>
       <c r="E283" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="284" spans="1:5">
@@ -8563,10 +8632,10 @@
         <v>857</v>
       </c>
       <c r="D284" t="s">
-        <v>1019</v>
+        <v>1092</v>
       </c>
       <c r="E284" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="285" spans="1:5">
@@ -8580,10 +8649,10 @@
         <v>858</v>
       </c>
       <c r="D285" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="E285" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="286" spans="1:5">
@@ -8597,10 +8666,10 @@
         <v>858</v>
       </c>
       <c r="D286" t="s">
-        <v>1082</v>
+        <v>1089</v>
       </c>
       <c r="E286" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="287" spans="1:5">
@@ -8614,10 +8683,10 @@
         <v>859</v>
       </c>
       <c r="D287" t="s">
-        <v>1081</v>
+        <v>1090</v>
       </c>
       <c r="E287" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="288" spans="1:5">
@@ -8631,10 +8700,10 @@
         <v>860</v>
       </c>
       <c r="D288" t="s">
-        <v>995</v>
+        <v>1091</v>
       </c>
       <c r="E288" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="289" spans="1:5">
@@ -8648,10 +8717,10 @@
         <v>861</v>
       </c>
       <c r="D289" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="E289" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="290" spans="1:5">
@@ -8665,10 +8734,10 @@
         <v>862</v>
       </c>
       <c r="D290" t="s">
-        <v>968</v>
+        <v>1091</v>
       </c>
       <c r="E290" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="291" spans="1:5">
@@ -8682,10 +8751,10 @@
         <v>863</v>
       </c>
       <c r="D291" t="s">
-        <v>1083</v>
+        <v>1093</v>
       </c>
       <c r="E291" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="292" spans="1:5">
@@ -8699,10 +8768,10 @@
         <v>864</v>
       </c>
       <c r="D292" t="s">
-        <v>1057</v>
+        <v>1094</v>
       </c>
       <c r="E292" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="293" spans="1:5">
@@ -8716,10 +8785,10 @@
         <v>865</v>
       </c>
       <c r="D293" t="s">
-        <v>1083</v>
+        <v>1095</v>
       </c>
       <c r="E293" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="294" spans="1:5">
@@ -8733,10 +8802,10 @@
         <v>866</v>
       </c>
       <c r="D294" t="s">
-        <v>993</v>
+        <v>1096</v>
       </c>
       <c r="E294" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="295" spans="1:5">
@@ -8750,10 +8819,10 @@
         <v>867</v>
       </c>
       <c r="D295" t="s">
-        <v>1083</v>
+        <v>1096</v>
       </c>
       <c r="E295" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="296" spans="1:5">
@@ -8767,10 +8836,10 @@
         <v>863</v>
       </c>
       <c r="D296" t="s">
-        <v>981</v>
+        <v>1093</v>
       </c>
       <c r="E296" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="297" spans="1:5">
@@ -8784,10 +8853,10 @@
         <v>864</v>
       </c>
       <c r="D297" t="s">
-        <v>1084</v>
+        <v>1094</v>
       </c>
       <c r="E297" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="298" spans="1:5">
@@ -8801,10 +8870,10 @@
         <v>865</v>
       </c>
       <c r="D298" t="s">
-        <v>1039</v>
+        <v>1095</v>
       </c>
       <c r="E298" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="299" spans="1:5">
@@ -8818,10 +8887,10 @@
         <v>866</v>
       </c>
       <c r="D299" t="s">
-        <v>1085</v>
+        <v>1096</v>
       </c>
       <c r="E299" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="300" spans="1:5">
@@ -8835,10 +8904,10 @@
         <v>867</v>
       </c>
       <c r="D300" t="s">
-        <v>967</v>
+        <v>1096</v>
       </c>
       <c r="E300" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="301" spans="1:5">
@@ -8852,10 +8921,10 @@
         <v>868</v>
       </c>
       <c r="D301" t="s">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="E301" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="302" spans="1:5">
@@ -8869,10 +8938,10 @@
         <v>869</v>
       </c>
       <c r="D302" t="s">
-        <v>962</v>
+        <v>1070</v>
       </c>
       <c r="E302" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="303" spans="1:5">
@@ -8886,10 +8955,10 @@
         <v>870</v>
       </c>
       <c r="D303" t="s">
-        <v>1087</v>
+        <v>1098</v>
       </c>
       <c r="E303" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="304" spans="1:5">
@@ -8903,10 +8972,10 @@
         <v>871</v>
       </c>
       <c r="D304" t="s">
-        <v>982</v>
+        <v>1099</v>
       </c>
       <c r="E304" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="305" spans="1:5">
@@ -8920,10 +8989,10 @@
         <v>872</v>
       </c>
       <c r="D305" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E305" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="306" spans="1:5">
@@ -8937,10 +9006,10 @@
         <v>872</v>
       </c>
       <c r="D306" t="s">
-        <v>977</v>
+        <v>1087</v>
       </c>
       <c r="E306" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="307" spans="1:5">
@@ -8954,10 +9023,10 @@
         <v>873</v>
       </c>
       <c r="D307" t="s">
-        <v>1089</v>
+        <v>1073</v>
       </c>
       <c r="E307" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="308" spans="1:5">
@@ -8971,10 +9040,10 @@
         <v>874</v>
       </c>
       <c r="D308" t="s">
-        <v>1072</v>
+        <v>1100</v>
       </c>
       <c r="E308" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="309" spans="1:5">
@@ -8988,10 +9057,10 @@
         <v>875</v>
       </c>
       <c r="D309" t="s">
-        <v>1066</v>
+        <v>1091</v>
       </c>
       <c r="E309" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="310" spans="1:5">
@@ -9005,10 +9074,10 @@
         <v>876</v>
       </c>
       <c r="D310" t="s">
-        <v>1002</v>
+        <v>1101</v>
       </c>
       <c r="E310" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="311" spans="1:5">
@@ -9022,10 +9091,10 @@
         <v>877</v>
       </c>
       <c r="D311" t="s">
-        <v>1090</v>
+        <v>1101</v>
       </c>
       <c r="E311" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="312" spans="1:5">
@@ -9039,10 +9108,10 @@
         <v>878</v>
       </c>
       <c r="D312" t="s">
-        <v>1091</v>
+        <v>1102</v>
       </c>
       <c r="E312" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="313" spans="1:5">
@@ -9056,10 +9125,10 @@
         <v>879</v>
       </c>
       <c r="D313" t="s">
-        <v>1084</v>
+        <v>1103</v>
       </c>
       <c r="E313" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="314" spans="1:5">
@@ -9073,10 +9142,10 @@
         <v>880</v>
       </c>
       <c r="D314" t="s">
-        <v>1091</v>
+        <v>1064</v>
       </c>
       <c r="E314" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="315" spans="1:5">
@@ -9090,10 +9159,10 @@
         <v>881</v>
       </c>
       <c r="D315" t="s">
-        <v>1092</v>
+        <v>1104</v>
       </c>
       <c r="E315" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="316" spans="1:5">
@@ -9107,10 +9176,10 @@
         <v>881</v>
       </c>
       <c r="D316" t="s">
-        <v>1093</v>
+        <v>1104</v>
       </c>
       <c r="E316" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="317" spans="1:5">
@@ -9124,10 +9193,10 @@
         <v>882</v>
       </c>
       <c r="D317" t="s">
-        <v>1094</v>
+        <v>1066</v>
       </c>
       <c r="E317" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="318" spans="1:5">
@@ -9141,10 +9210,10 @@
         <v>883</v>
       </c>
       <c r="D318" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
       <c r="E318" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="319" spans="1:5">
@@ -9158,10 +9227,10 @@
         <v>884</v>
       </c>
       <c r="D319" t="s">
-        <v>1060</v>
+        <v>983</v>
       </c>
       <c r="E319" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="320" spans="1:5">
@@ -9175,10 +9244,10 @@
         <v>885</v>
       </c>
       <c r="D320" t="s">
-        <v>1067</v>
+        <v>1071</v>
       </c>
       <c r="E320" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -9192,10 +9261,10 @@
         <v>886</v>
       </c>
       <c r="D321" t="s">
-        <v>1095</v>
+        <v>982</v>
       </c>
       <c r="E321" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -9209,10 +9278,10 @@
         <v>887</v>
       </c>
       <c r="D322" t="s">
-        <v>957</v>
+        <v>1099</v>
       </c>
       <c r="E322" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -9226,10 +9295,10 @@
         <v>888</v>
       </c>
       <c r="D323" t="s">
-        <v>1056</v>
+        <v>1102</v>
       </c>
       <c r="E323" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -9243,10 +9312,10 @@
         <v>889</v>
       </c>
       <c r="D324" t="s">
-        <v>1065</v>
+        <v>1102</v>
       </c>
       <c r="E324" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="325" spans="1:5">
@@ -9260,10 +9329,10 @@
         <v>890</v>
       </c>
       <c r="D325" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="E325" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -9277,10 +9346,10 @@
         <v>891</v>
       </c>
       <c r="D326" t="s">
-        <v>979</v>
+        <v>1104</v>
       </c>
       <c r="E326" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -9294,10 +9363,10 @@
         <v>892</v>
       </c>
       <c r="D327" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="E327" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -9311,10 +9380,10 @@
         <v>893</v>
       </c>
       <c r="D328" t="s">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="E328" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9328,10 +9397,10 @@
         <v>894</v>
       </c>
       <c r="D329" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="E329" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9345,10 +9414,10 @@
         <v>895</v>
       </c>
       <c r="D330" t="s">
-        <v>1096</v>
+        <v>1089</v>
       </c>
       <c r="E330" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="331" spans="1:5">
@@ -9362,10 +9431,10 @@
         <v>896</v>
       </c>
       <c r="D331" t="s">
-        <v>1096</v>
+        <v>991</v>
       </c>
       <c r="E331" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9379,10 +9448,10 @@
         <v>897</v>
       </c>
       <c r="D332" t="s">
-        <v>1019</v>
+        <v>1106</v>
       </c>
       <c r="E332" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="333" spans="1:5">
@@ -9396,10 +9465,10 @@
         <v>898</v>
       </c>
       <c r="D333" t="s">
-        <v>1081</v>
+        <v>993</v>
       </c>
       <c r="E333" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9413,10 +9482,10 @@
         <v>897</v>
       </c>
       <c r="D334" t="s">
-        <v>1027</v>
+        <v>1106</v>
       </c>
       <c r="E334" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9430,10 +9499,10 @@
         <v>898</v>
       </c>
       <c r="D335" t="s">
-        <v>1097</v>
+        <v>993</v>
       </c>
       <c r="E335" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9447,10 +9516,10 @@
         <v>899</v>
       </c>
       <c r="D336" t="s">
-        <v>956</v>
+        <v>992</v>
       </c>
       <c r="E336" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9464,10 +9533,10 @@
         <v>900</v>
       </c>
       <c r="D337" t="s">
-        <v>1098</v>
+        <v>992</v>
       </c>
       <c r="E337" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9481,10 +9550,10 @@
         <v>901</v>
       </c>
       <c r="D338" t="s">
-        <v>977</v>
+        <v>1107</v>
       </c>
       <c r="E338" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="339" spans="1:5">
@@ -9498,10 +9567,10 @@
         <v>902</v>
       </c>
       <c r="D339" t="s">
-        <v>1098</v>
+        <v>987</v>
       </c>
       <c r="E339" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="340" spans="1:5">
@@ -9515,10 +9584,10 @@
         <v>903</v>
       </c>
       <c r="D340" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E340" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="341" spans="1:5">
@@ -9532,10 +9601,10 @@
         <v>904</v>
       </c>
       <c r="D341" t="s">
-        <v>1098</v>
+        <v>1108</v>
       </c>
       <c r="E341" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="342" spans="1:5">
@@ -9549,10 +9618,10 @@
         <v>905</v>
       </c>
       <c r="D342" t="s">
-        <v>1039</v>
+        <v>984</v>
       </c>
       <c r="E342" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="343" spans="1:5">
@@ -9566,10 +9635,10 @@
         <v>906</v>
       </c>
       <c r="D343" t="s">
-        <v>1099</v>
+        <v>986</v>
       </c>
       <c r="E343" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="344" spans="1:5">
@@ -9583,10 +9652,10 @@
         <v>906</v>
       </c>
       <c r="D344" t="s">
-        <v>1005</v>
+        <v>986</v>
       </c>
       <c r="E344" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="345" spans="1:5">
@@ -9600,10 +9669,10 @@
         <v>907</v>
       </c>
       <c r="D345" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="E345" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="346" spans="1:5">
@@ -9617,10 +9686,10 @@
         <v>908</v>
       </c>
       <c r="D346" t="s">
-        <v>1029</v>
+        <v>1108</v>
       </c>
       <c r="E346" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="347" spans="1:5">
@@ -9634,10 +9703,10 @@
         <v>909</v>
       </c>
       <c r="D347" t="s">
-        <v>1097</v>
+        <v>1109</v>
       </c>
       <c r="E347" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="348" spans="1:5">
@@ -9651,10 +9720,10 @@
         <v>910</v>
       </c>
       <c r="D348" t="s">
-        <v>1014</v>
+        <v>1110</v>
       </c>
       <c r="E348" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="349" spans="1:5">
@@ -9668,10 +9737,10 @@
         <v>911</v>
       </c>
       <c r="D349" t="s">
-        <v>1097</v>
+        <v>1111</v>
       </c>
       <c r="E349" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="350" spans="1:5">
@@ -9685,10 +9754,10 @@
         <v>912</v>
       </c>
       <c r="D350" t="s">
-        <v>1101</v>
+        <v>1112</v>
       </c>
       <c r="E350" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="351" spans="1:5">
@@ -9702,10 +9771,10 @@
         <v>913</v>
       </c>
       <c r="D351" t="s">
-        <v>974</v>
+        <v>1113</v>
       </c>
       <c r="E351" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="352" spans="1:5">
@@ -9719,10 +9788,10 @@
         <v>914</v>
       </c>
       <c r="D352" t="s">
-        <v>1102</v>
+        <v>1114</v>
       </c>
       <c r="E352" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="353" spans="1:5">
@@ -9736,10 +9805,10 @@
         <v>915</v>
       </c>
       <c r="D353" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="E353" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="354" spans="1:5">
@@ -9753,10 +9822,10 @@
         <v>916</v>
       </c>
       <c r="D354" t="s">
-        <v>991</v>
+        <v>1115</v>
       </c>
       <c r="E354" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="355" spans="1:5">
@@ -9770,10 +9839,10 @@
         <v>917</v>
       </c>
       <c r="D355" t="s">
-        <v>1004</v>
+        <v>1116</v>
       </c>
       <c r="E355" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="356" spans="1:5">
@@ -9787,10 +9856,10 @@
         <v>918</v>
       </c>
       <c r="D356" t="s">
-        <v>966</v>
+        <v>1018</v>
       </c>
       <c r="E356" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="357" spans="1:5">
@@ -9804,10 +9873,10 @@
         <v>919</v>
       </c>
       <c r="D357" t="s">
-        <v>959</v>
+        <v>1023</v>
       </c>
       <c r="E357" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="358" spans="1:5">
@@ -9821,10 +9890,10 @@
         <v>920</v>
       </c>
       <c r="D358" t="s">
-        <v>1103</v>
+        <v>1117</v>
       </c>
       <c r="E358" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="359" spans="1:5">
@@ -9838,10 +9907,10 @@
         <v>919</v>
       </c>
       <c r="D359" t="s">
-        <v>952</v>
+        <v>1023</v>
       </c>
       <c r="E359" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="360" spans="1:5">
@@ -9855,10 +9924,10 @@
         <v>920</v>
       </c>
       <c r="D360" t="s">
-        <v>1026</v>
+        <v>1117</v>
       </c>
       <c r="E360" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="361" spans="1:5">
@@ -9872,10 +9941,10 @@
         <v>921</v>
       </c>
       <c r="D361" t="s">
-        <v>960</v>
+        <v>1118</v>
       </c>
       <c r="E361" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="362" spans="1:5">
@@ -9889,10 +9958,10 @@
         <v>922</v>
       </c>
       <c r="D362" t="s">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="E362" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="363" spans="1:5">
@@ -9906,10 +9975,10 @@
         <v>923</v>
       </c>
       <c r="D363" t="s">
-        <v>959</v>
+        <v>1120</v>
       </c>
       <c r="E363" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="364" spans="1:5">
@@ -9923,10 +9992,10 @@
         <v>924</v>
       </c>
       <c r="D364" t="s">
-        <v>1105</v>
+        <v>1007</v>
       </c>
       <c r="E364" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="365" spans="1:5">
@@ -9940,10 +10009,10 @@
         <v>925</v>
       </c>
       <c r="D365" t="s">
-        <v>956</v>
+        <v>1121</v>
       </c>
       <c r="E365" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="366" spans="1:5">
@@ -9957,10 +10026,10 @@
         <v>926</v>
       </c>
       <c r="D366" t="s">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="E366" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="367" spans="1:5">
@@ -9974,10 +10043,10 @@
         <v>927</v>
       </c>
       <c r="D367" t="s">
-        <v>1070</v>
+        <v>1030</v>
       </c>
       <c r="E367" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="368" spans="1:5">
@@ -9991,10 +10060,10 @@
         <v>928</v>
       </c>
       <c r="D368" t="s">
-        <v>1047</v>
+        <v>1123</v>
       </c>
       <c r="E368" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="369" spans="1:5">
@@ -10008,10 +10077,10 @@
         <v>929</v>
       </c>
       <c r="D369" t="s">
-        <v>968</v>
+        <v>1036</v>
       </c>
       <c r="E369" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="370" spans="1:5">
@@ -10025,10 +10094,10 @@
         <v>930</v>
       </c>
       <c r="D370" t="s">
-        <v>958</v>
+        <v>1124</v>
       </c>
       <c r="E370" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="371" spans="1:5">
@@ -10042,10 +10111,10 @@
         <v>931</v>
       </c>
       <c r="D371" t="s">
-        <v>1014</v>
+        <v>1125</v>
       </c>
       <c r="E371" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="372" spans="1:5">
@@ -10059,10 +10128,10 @@
         <v>932</v>
       </c>
       <c r="D372" t="s">
-        <v>1107</v>
+        <v>1054</v>
       </c>
       <c r="E372" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="373" spans="1:5">
@@ -10076,10 +10145,10 @@
         <v>933</v>
       </c>
       <c r="D373" t="s">
-        <v>1108</v>
+        <v>1126</v>
       </c>
       <c r="E373" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="374" spans="1:5">
@@ -10093,10 +10162,10 @@
         <v>934</v>
       </c>
       <c r="D374" t="s">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="E374" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="375" spans="1:5">
@@ -10110,10 +10179,10 @@
         <v>935</v>
       </c>
       <c r="D375" t="s">
-        <v>1109</v>
+        <v>1065</v>
       </c>
       <c r="E375" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="376" spans="1:5">
@@ -10127,10 +10196,10 @@
         <v>936</v>
       </c>
       <c r="D376" t="s">
-        <v>975</v>
+        <v>1128</v>
       </c>
       <c r="E376" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="377" spans="1:5">
@@ -10144,10 +10213,10 @@
         <v>937</v>
       </c>
       <c r="D377" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="E377" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="378" spans="1:5">
@@ -10158,10 +10227,10 @@
         <v>938</v>
       </c>
       <c r="D378" t="s">
-        <v>1110</v>
+        <v>1129</v>
       </c>
       <c r="E378" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="379" spans="1:5">
@@ -10175,10 +10244,10 @@
         <v>939</v>
       </c>
       <c r="D379" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="E379" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="380" spans="1:5">
@@ -10192,10 +10261,10 @@
         <v>940</v>
       </c>
       <c r="D380" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="E380" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="381" spans="1:5">
@@ -10209,10 +10278,10 @@
         <v>941</v>
       </c>
       <c r="D381" t="s">
-        <v>982</v>
+        <v>1130</v>
       </c>
       <c r="E381" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="382" spans="1:5">
@@ -10226,10 +10295,10 @@
         <v>942</v>
       </c>
       <c r="D382" t="s">
-        <v>1093</v>
+        <v>1131</v>
       </c>
       <c r="E382" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="383" spans="1:5">
@@ -10243,10 +10312,10 @@
         <v>943</v>
       </c>
       <c r="D383" t="s">
-        <v>1112</v>
+        <v>1132</v>
       </c>
       <c r="E383" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="384" spans="1:5">
@@ -10260,10 +10329,10 @@
         <v>944</v>
       </c>
       <c r="D384" t="s">
-        <v>1067</v>
+        <v>1087</v>
       </c>
       <c r="E384" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="385" spans="1:5">
@@ -10277,10 +10346,10 @@
         <v>945</v>
       </c>
       <c r="D385" t="s">
-        <v>1113</v>
+        <v>1133</v>
       </c>
       <c r="E385" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="386" spans="1:5">
@@ -10294,10 +10363,10 @@
         <v>946</v>
       </c>
       <c r="D386" t="s">
-        <v>1096</v>
+        <v>1134</v>
       </c>
       <c r="E386" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="387" spans="1:5">
@@ -10311,10 +10380,10 @@
         <v>946</v>
       </c>
       <c r="D387" t="s">
-        <v>1114</v>
+        <v>1134</v>
       </c>
       <c r="E387" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="388" spans="1:5">
@@ -10328,10 +10397,10 @@
         <v>947</v>
       </c>
       <c r="D388" t="s">
-        <v>1080</v>
+        <v>1135</v>
       </c>
       <c r="E388" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="389" spans="1:5">
@@ -10345,10 +10414,10 @@
         <v>948</v>
       </c>
       <c r="D389" t="s">
-        <v>957</v>
+        <v>1136</v>
       </c>
       <c r="E389" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="390" spans="1:5">
@@ -10362,10 +10431,10 @@
         <v>949</v>
       </c>
       <c r="D390" t="s">
-        <v>958</v>
+        <v>1137</v>
       </c>
       <c r="E390" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="391" spans="1:5">
@@ -10379,10 +10448,10 @@
         <v>950</v>
       </c>
       <c r="D391" t="s">
-        <v>963</v>
+        <v>1138</v>
       </c>
       <c r="E391" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="392" spans="1:5">
@@ -10396,10 +10465,10 @@
         <v>951</v>
       </c>
       <c r="D392" t="s">
-        <v>1115</v>
+        <v>997</v>
       </c>
       <c r="E392" t="s">
-        <v>1116</v>
+        <v>1139</v>
       </c>
     </row>
   </sheetData>
